--- a/examples/input/test_model_reader.xlsx
+++ b/examples/input/test_model_reader.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sources\neural_network\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sources\neural_network\train\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64A899-E3F4-4CC8-A916-E163FA18A912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F0CACB-E729-407A-AEA5-1B36527FDFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A20582AB-88BD-46D8-AA68-6482A241F4EF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>pseudo()</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>lin(0.2)</t>
+  </si>
+  <si>
+    <t>Коэффициент скорости обучения</t>
+  </si>
+  <si>
+    <t>Количество входов нейронной сети</t>
+  </si>
+  <si>
+    <t>Размерность выходного слоя</t>
   </si>
 </sst>
 </file>
@@ -394,24 +403,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEB24AB-FA4D-4581-971D-E40EE866A705}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
         <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
